--- a/ExperimentSummaryFIles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFIles/Form 3_cellranger_counts_summary.xlsx
@@ -12,10 +12,11 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$P$100</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$D$1:$G$93</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$D$1:$I$95</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$D$1:$I$97</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$P$121</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$D$1:$G$94</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$D$1:$I$96</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$P$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">aggregation!$D$1:$I$98</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="184">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -410,6 +411,9 @@
     <t xml:space="preserve">STARR_049</t>
   </si>
   <si>
+    <t xml:space="preserve">middle</t>
+  </si>
+  <si>
     <t xml:space="preserve">76632_V11</t>
   </si>
   <si>
@@ -488,7 +492,82 @@
     <t xml:space="preserve">STARR_039_force1500</t>
   </si>
   <si>
-    <t xml:space="preserve">middle</t>
+    <t xml:space="preserve">SequencingFiles_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211105_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211106_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211107_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211108_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211109_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211110_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211111_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211112_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211113_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76656_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211114_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211115_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211116_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_051_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_049_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76632_V11_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76632_V5_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5_Muscle_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76643_V5_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V5_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76649_V5_combine</t>
   </si>
   <si>
     <t xml:space="preserve">Folder</t>
@@ -617,7 +696,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -627,26 +706,26 @@
       <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D:D"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="107.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="107.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="11.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="24.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="31.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="14.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="111.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="17" style="1" width="11.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1016" style="3" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="17" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1016" style="3" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,7 +778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -742,7 +821,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -785,7 +864,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -828,7 +907,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -871,7 +950,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -914,7 +993,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/Rapa_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -963,7 +1042,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -1012,7 +1091,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15_forced/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -1058,7 +1137,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15_premrna/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -1104,7 +1183,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_015_Next/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -1147,7 +1226,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/Buttons_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -1190,7 +1269,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -1233,7 +1312,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -1276,7 +1355,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -1319,7 +1398,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -1362,7 +1441,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -1405,7 +1484,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -1448,7 +1527,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -1491,7 +1570,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -1534,7 +1613,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_Rapa_Mar/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
@@ -1580,7 +1659,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_STARR_015/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
@@ -1626,7 +1705,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Forced_STARR_016/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
@@ -1672,7 +1751,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_STARR_016/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
@@ -1715,7 +1794,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_Buttons/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
@@ -1761,7 +1840,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/All_STARR_015/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
@@ -1810,7 +1889,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/All_STARR_015fix/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
@@ -1853,7 +1932,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/ALL_Buttons/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
@@ -1899,7 +1978,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
@@ -1945,7 +2024,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
@@ -1991,7 +2070,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_Nova/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
@@ -2037,7 +2116,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
@@ -2086,7 +2165,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
@@ -2129,7 +2208,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
@@ -2172,7 +2251,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
@@ -2215,7 +2294,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
@@ -2261,7 +2340,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR026h/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
@@ -2307,7 +2386,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR024/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
@@ -2353,7 +2432,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR031/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
@@ -2399,7 +2478,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR028/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
@@ -2445,7 +2524,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR026/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
@@ -2491,7 +2570,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR032/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
@@ -2537,7 +2616,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_026/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
@@ -2583,7 +2662,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_024/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
@@ -2629,7 +2708,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
@@ -2675,7 +2754,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
@@ -2721,7 +2800,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
@@ -2764,7 +2843,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Rapa_Mar_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
@@ -2807,7 +2886,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Rapa_Mar/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
@@ -2850,7 +2929,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDYoung/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
@@ -2893,7 +2972,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDOld/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
@@ -2936,7 +3015,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDYoung/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
@@ -2979,7 +3058,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDOld/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
@@ -3022,7 +3101,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Young_combine_force_5000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
@@ -3065,7 +3144,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Young_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
@@ -3108,7 +3187,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
@@ -3151,7 +3230,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
@@ -3194,7 +3273,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
@@ -3237,7 +3316,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
@@ -3280,7 +3359,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
@@ -3323,7 +3402,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Old_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
@@ -3366,7 +3445,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Evie/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
@@ -3409,7 +3488,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Marmoset_Olaf/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
@@ -3452,7 +3531,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Norton/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
@@ -3498,7 +3577,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/76615-V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
@@ -3544,7 +3623,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
@@ -3590,7 +3669,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_041/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
@@ -3636,7 +3715,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_043/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
@@ -3679,7 +3758,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R1/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>68</v>
       </c>
@@ -3722,7 +3801,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R2/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>69</v>
       </c>
@@ -3765,7 +3844,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R1/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>70</v>
       </c>
@@ -3808,7 +3887,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R2/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>71</v>
       </c>
@@ -3823,6 +3902,9 @@
       </c>
       <c r="F72" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="I72" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J72, $K72, "/", $L72, "/", $E72,  $M72, $N72)</f>
@@ -3851,7 +3933,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/76632-V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>72</v>
       </c>
@@ -3894,7 +3976,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>73</v>
       </c>
@@ -3937,7 +4019,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
@@ -3980,7 +4062,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>75</v>
       </c>
@@ -4026,7 +4108,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>76</v>
       </c>
@@ -4072,7 +4154,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>77</v>
       </c>
@@ -4118,7 +4200,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>78</v>
       </c>
@@ -4164,7 +4246,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>79</v>
       </c>
@@ -4210,7 +4292,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>80</v>
       </c>
@@ -4228,6 +4310,9 @@
       </c>
       <c r="G81" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="I81" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J81, $K81, "/", $L81, "/", $E81,  $M81, $N81)</f>
@@ -4256,7 +4341,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_049/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>81</v>
       </c>
@@ -4264,13 +4349,16 @@
         <v>104</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="I82" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J82, $K82, "/", $L82, "/", $E82,  $M82, $N82)</f>
@@ -4283,7 +4371,7 @@
         <v>107</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>23</v>
@@ -4299,7 +4387,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76632-V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>82</v>
       </c>
@@ -4307,13 +4395,16 @@
         <v>104</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="I83" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J83, $K83, "/", $L83, "/", $E83,  $M83, $N83)</f>
@@ -4326,7 +4417,7 @@
         <v>107</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>23</v>
@@ -4342,7 +4433,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638-V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>83</v>
       </c>
@@ -4350,13 +4441,16 @@
         <v>104</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="I84" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J84, $K84, "/", $L84, "/", $E84,  $M84, $N84)</f>
@@ -4369,7 +4463,7 @@
         <v>107</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>23</v>
@@ -4385,7 +4479,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638-V5_Muscle/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>84</v>
       </c>
@@ -4393,13 +4487,16 @@
         <v>104</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="I85" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J85, $K85, "/", $L85, "/", $E85,  $M85, $N85)</f>
@@ -4412,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>23</v>
@@ -4428,7 +4525,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638-V5_Muscle_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>85</v>
       </c>
@@ -4436,16 +4533,16 @@
         <v>104</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="I86" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J86, $K86, "/", $L86, "/", $E86,  $M86, $N86)</f>
@@ -4458,7 +4555,7 @@
         <v>107</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>23</v>
@@ -4474,7 +4571,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76643-V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>86</v>
       </c>
@@ -4482,13 +4579,16 @@
         <v>104</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="I87" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J87, $K87, "/", $L87, "/", $E87,  $M87, $N87)</f>
@@ -4501,7 +4601,7 @@
         <v>107</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>23</v>
@@ -4517,7 +4617,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76647-V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>87</v>
       </c>
@@ -4525,13 +4625,16 @@
         <v>104</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="I88" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J88, $K88, "/", $L88, "/", $E88,  $M88, $N88)</f>
@@ -4544,7 +4647,7 @@
         <v>107</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>23</v>
@@ -4560,7 +4663,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76649-V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>88</v>
       </c>
@@ -4568,16 +4671,19 @@
         <v>35</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="I89" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J89, $K89, "/", $L89, "/", $E89,  $M89, $N89)</f>
@@ -4590,7 +4696,7 @@
         <v>107</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>23</v>
@@ -4606,7 +4712,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/STARR_051/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>89</v>
       </c>
@@ -4620,7 +4726,7 @@
         <v>82</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>19</v>
@@ -4655,7 +4761,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>90</v>
       </c>
@@ -4669,7 +4775,7 @@
         <v>80</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>44</v>
@@ -4707,7 +4813,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>91</v>
       </c>
@@ -4721,7 +4827,7 @@
         <v>85</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>44</v>
@@ -4759,7 +4865,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force3000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>92</v>
       </c>
@@ -4773,7 +4879,7 @@
         <v>109</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>44</v>
@@ -4808,7 +4914,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>93</v>
       </c>
@@ -4822,7 +4928,7 @@
         <v>60</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>44</v>
@@ -4860,7 +4966,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force7000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>94</v>
       </c>
@@ -4874,7 +4980,7 @@
         <v>80</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>44</v>
@@ -4912,7 +5018,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force3000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>95</v>
       </c>
@@ -4926,7 +5032,7 @@
         <v>85</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>44</v>
@@ -4961,7 +5067,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2500/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>96</v>
       </c>
@@ -4975,7 +5081,7 @@
         <v>80</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>44</v>
@@ -5024,7 +5130,7 @@
         <v>85</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>44</v>
@@ -5073,7 +5179,7 @@
         <v>80</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>44</v>
@@ -5108,7 +5214,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>99</v>
       </c>
@@ -5122,16 +5228,13 @@
         <v>109</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I100" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J100, $K100, "/", $L100, "/", $E100,  $M100, $N100)</f>
@@ -5160,8 +5263,1091 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force1500/outs/metrics_summary.csv</v>
       </c>
     </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I101" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J101, $K101, "/", $L101, "/", $E101,  $M101, $N101)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5/outs/molecule_info.h5</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P101" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J101, $K101, "/", $L101, "/", $E101,  $M101, $O101,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J102, $K102, "/", $L102, "/", $E102,  $M102, $N102)</f>
+        <v>/media/jianie/SequencingFiles_3/20211106_L3_L4_Counts/STARR_049/outs/molecule_info.h5</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P102" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J102, $K102, "/", $L102, "/", $E102,  $M102, $O102,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211106_L3_L4_Counts/STARR_049/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I103" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J103, $K103, "/", $L103, "/", $E103,  $M103, $N103)</f>
+        <v>/media/jianie/SequencingFiles_3/20211107_L3_L4_Counts/76632_V11/outs/molecule_info.h5</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P103" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J103, $K103, "/", $L103, "/", $E103,  $M103, $O103,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211107_L3_L4_Counts/76632_V11/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I104" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J104, $K104, "/", $L104, "/", $E104,  $M104, $N104)</f>
+        <v>/media/jianie/SequencingFiles_3/20211108_L3_L4_Counts/76643_V5/outs/molecule_info.h5</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P104" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J104, $K104, "/", $L104, "/", $E104,  $M104, $O104,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211108_L3_L4_Counts/76643_V5/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I105" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J105, $K105, "/", $L105, "/", $E105,  $M105, $N105)</f>
+        <v>/media/jianie/SequencingFiles_3/20211109_L3_L4_Counts/76647_V5/outs/molecule_info.h5</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P105" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J105, $K105, "/", $L105, "/", $E105,  $M105, $O105,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211109_L3_L4_Counts/76647_V5/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I106" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J106, $K106, "/", $L106, "/", $E106,  $M106, $N106)</f>
+        <v>/media/jianie/SequencingFiles_3/20211110_L3_L4_Counts/STARR_051/outs/molecule_info.h5</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P106" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J106, $K106, "/", $L106, "/", $E106,  $M106, $O106,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211110_L3_L4_Counts/STARR_051/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I107" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J107, $K107, "/", $L107, "/", $E107,  $M107, $N107)</f>
+        <v>/media/jianie/SequencingFiles_3/20211111_L3_L4_Counts/76649_V5/outs/molecule_info.h5</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P107" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J107, $K107, "/", $L107, "/", $E107,  $M107, $O107,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211111_L3_L4_Counts/76649_V5/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I108" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J108, $K108, "/", $L108, "/", $E108,  $M108, $N108)</f>
+        <v>/media/jianie/SequencingFiles_3/20211112_L3_L4_Counts/76638_V5_Muscle/outs/molecule_info.h5</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P108" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J108, $K108, "/", $L108, "/", $E108,  $M108, $O108,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211112_L3_L4_Counts/76638_V5_Muscle/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I109" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J109, $K109, "/", $L109, "/", $E109,  $M109, $N109)</f>
+        <v>/media/jianie/SequencingFiles_3/20211113_L3_L4_Counts/76638_V5/outs/molecule_info.h5</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P109" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J109, $K109, "/", $L109, "/", $E109,  $M109, $O109,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211113_L3_L4_Counts/76638_V5/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I110" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J110, $K110, "/", $L110, "/", $E110,  $M110, $N110)</f>
+        <v>/media/jianie/SequencingFiles_3/20211114_L3_L4_Counts/76656_V5/outs/molecule_info.h5</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P110" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J110, $K110, "/", $L110, "/", $E110,  $M110, $O110,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211114_L3_L4_Counts/76656_V5/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I111" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J111, $K111, "/", $L111, "/", $E111,  $M111, $N111)</f>
+        <v>/media/jianie/SequencingFiles_3/20211115_L3_L4_Counts/76658_V5/outs/molecule_info.h5</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P111" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J111, $K111, "/", $L111, "/", $E111,  $M111, $O111,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211115_L3_L4_Counts/76658_V5/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I112" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J112, $K112, "/", $L112, "/", $E112,  $M112, $N112)</f>
+        <v>/media/jianie/SequencingFiles_3/20211116_L3_L4_Counts/76638_V11/outs/molecule_info.h5</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P112" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J112, $K112, "/", $L112, "/", $E112,  $M112, $O112,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211116_L3_L4_Counts/76638_V11/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I113" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J113, $K113, "/", $L113, "/", $E113,  $M113, $N113)</f>
+        <v>/media/jianie/SequencingFiles_3/20211110_L3_L4_Counts/STARR_051_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P113" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J113, $K113, "/", $L113, "/", $E113,  $M113, $O113,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211110_L3_L4_Counts/STARR_051_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I114" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J114, $K114, "/", $L114, "/", $E114,  $M114, $N114)</f>
+        <v>/media/jianie/SequencingFiles_3/20211106_L3_L4_Counts/STARR_049_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P114" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J114, $K114, "/", $L114, "/", $E114,  $M114, $O114,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211106_L3_L4_Counts/STARR_049_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I115" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J115, $K115, "/", $L115, "/", $E115,  $M115, $N115)</f>
+        <v>/media/jianie/SequencingFiles_3/20211107_L3_L4_Counts/76632_V11_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P115" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J115, $K115, "/", $L115, "/", $E115,  $M115, $O115,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211107_L3_L4_Counts/76632_V11_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I116" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J116, $K116, "/", $L116, "/", $E116,  $M116, $N116)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P116" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J116, $K116, "/", $L116, "/", $E116,  $M116, $O116,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I117" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J117, $K117, "/", $L117, "/", $E117,  $M117, $N117)</f>
+        <v>/media/jianie/SequencingFiles_3/20211113_L3_L4_Counts/76638_V5_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P117" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J117, $K117, "/", $L117, "/", $E117,  $M117, $O117,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211113_L3_L4_Counts/76638_V5_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I118" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J118, $K118, "/", $L118, "/", $E118,  $M118, $N118)</f>
+        <v>/media/jianie/SequencingFiles_3/20211112_L3_L4_Counts/76638_V5_Muscle_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P118" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J118, $K118, "/", $L118, "/", $E118,  $M118, $O118,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211112_L3_L4_Counts/76638_V5_Muscle_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I119" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J119, $K119, "/", $L119, "/", $E119,  $M119, $N119)</f>
+        <v>/media/jianie/SequencingFiles_3/20211108_L3_L4_Counts/76643_V5_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P119" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J119, $K119, "/", $L119, "/", $E119,  $M119, $O119,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211108_L3_L4_Counts/76643_V5_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I120" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J120, $K120, "/", $L120, "/", $E120,  $M120, $N120)</f>
+        <v>/media/jianie/SequencingFiles_3/20211109_L3_L4_Counts/76647_V5_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P120" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J120, $K120, "/", $L120, "/", $E120,  $M120, $O120,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211109_L3_L4_Counts/76647_V5_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I121" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J121, $K121, "/", $L121, "/", $E121,  $M121, $N121)</f>
+        <v>/media/jianie/SequencingFiles_3/20211111_L3_L4_Counts/76649_V5_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P121" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($J121, $K121, "/", $L121, "/", $E121,  $M121, $O121,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211111_L3_L4_Counts/76649_V5_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P100"/>
+  <autoFilter ref="A1:P121"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5184,15 +6370,15 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="D:D C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="26.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="26.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="30.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="17.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="20.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="12.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="4" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="4" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5203,13 +6389,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>8</v>
@@ -5217,7 +6403,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
@@ -5229,271 +6415,271 @@
         <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFIles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFIles/Form 3_cellranger_counts_summary.xlsx
@@ -15,8 +15,8 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$P$121</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$D$1:$G$94</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$D$1:$I$96</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$P$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">aggregation!$D$1:$I$98</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">aggregation!$A$1:$P$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">aggregation!$D$1:$I$98</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="176">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -348,9 +348,6 @@
     <t xml:space="preserve">76615_V5</t>
   </si>
   <si>
-    <t xml:space="preserve">76615-V5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Seagate_SequencingFiles_2</t>
   </si>
   <si>
@@ -387,9 +384,6 @@
     <t xml:space="preserve">76632_V5</t>
   </si>
   <si>
-    <t xml:space="preserve">76632-V5</t>
-  </si>
-  <si>
     <t xml:space="preserve">20210716_L2_counts_single</t>
   </si>
   <si>
@@ -417,43 +411,25 @@
     <t xml:space="preserve">76632_V11</t>
   </si>
   <si>
-    <t xml:space="preserve">76632-V11</t>
-  </si>
-  <si>
     <t xml:space="preserve">20210830_L3_counts_dual</t>
   </si>
   <si>
     <t xml:space="preserve">76638_V5</t>
   </si>
   <si>
-    <t xml:space="preserve">76638-V5</t>
-  </si>
-  <si>
     <t xml:space="preserve">76638_V5_Muscle</t>
   </si>
   <si>
-    <t xml:space="preserve">76638-V5_Muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638-V5_Muscle_force</t>
+    <t xml:space="preserve">76638_V5_Muscle_force</t>
   </si>
   <si>
     <t xml:space="preserve">76643_V5</t>
   </si>
   <si>
-    <t xml:space="preserve">76643-V5</t>
-  </si>
-  <si>
     <t xml:space="preserve">76647_V5</t>
   </si>
   <si>
-    <t xml:space="preserve">76647-V5</t>
-  </si>
-  <si>
     <t xml:space="preserve">76649_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76649-V5</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_051</t>
@@ -699,14 +675,14 @@
   <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E75" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D:D"/>
+      <selection pane="bottomLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
+      <selection pane="bottomRight" activeCell="E101" activeCellId="0" sqref="E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.96"/>
@@ -3542,7 +3518,7 @@
         <v>105</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>44</v>
@@ -3552,16 +3528,16 @@
       </c>
       <c r="I64" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J64, $K64, "/", $L64, "/", $E64,  $M64, $N64)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/76615-V5/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/76615_V5/outs/molecule_info.h5</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L64" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>23</v>
@@ -3574,7 +3550,7 @@
       </c>
       <c r="P64" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J64, $K64, "/", $L64, "/", $E64,  $M64, $O64,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/76615-V5/outs/metrics_summary.csv</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/76615_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3585,10 +3561,10 @@
         <v>35</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>44</v>
@@ -3604,10 +3580,10 @@
         <v>20</v>
       </c>
       <c r="K65" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L65" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>23</v>
@@ -3631,10 +3607,10 @@
         <v>35</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>44</v>
@@ -3650,10 +3626,10 @@
         <v>20</v>
       </c>
       <c r="K66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L66" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>23</v>
@@ -3677,10 +3653,10 @@
         <v>35</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>44</v>
@@ -3696,10 +3672,10 @@
         <v>20</v>
       </c>
       <c r="K67" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L67" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>23</v>
@@ -3720,13 +3696,13 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>44</v>
@@ -3739,10 +3715,10 @@
         <v>20</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>23</v>
@@ -3763,13 +3739,13 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>44</v>
@@ -3782,10 +3758,10 @@
         <v>20</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>23</v>
@@ -3806,13 +3782,13 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>44</v>
@@ -3825,10 +3801,10 @@
         <v>20</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>23</v>
@@ -3849,13 +3825,13 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>44</v>
@@ -3868,10 +3844,10 @@
         <v>20</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>23</v>
@@ -3895,10 +3871,10 @@
         <v>104</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>44</v>
@@ -3908,16 +3884,16 @@
       </c>
       <c r="I72" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J72, $K72, "/", $L72, "/", $E72,  $M72, $N72)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/76632-V5/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/76632_V5/outs/molecule_info.h5</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>23</v>
@@ -3930,7 +3906,7 @@
       </c>
       <c r="P72" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J72, $K72, "/", $L72, "/", $E72,  $M72, $O72,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/76632-V5/outs/metrics_summary.csv</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/76632_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3957,10 +3933,10 @@
         <v>20</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>23</v>
@@ -3987,7 +3963,7 @@
         <v>103</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>44</v>
@@ -4000,10 +3976,10 @@
         <v>20</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>23</v>
@@ -4030,7 +4006,7 @@
         <v>103</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>44</v>
@@ -4043,10 +4019,10 @@
         <v>20</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>23</v>
@@ -4089,10 +4065,10 @@
         <v>20</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>23</v>
@@ -4119,7 +4095,7 @@
         <v>78</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>44</v>
@@ -4135,10 +4111,10 @@
         <v>20</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>23</v>
@@ -4162,10 +4138,10 @@
         <v>35</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>44</v>
@@ -4181,10 +4157,10 @@
         <v>20</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>23</v>
@@ -4208,10 +4184,10 @@
         <v>35</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>44</v>
@@ -4227,10 +4203,10 @@
         <v>20</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>23</v>
@@ -4254,10 +4230,10 @@
         <v>35</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>44</v>
@@ -4273,10 +4249,10 @@
         <v>20</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>23</v>
@@ -4300,10 +4276,10 @@
         <v>35</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>44</v>
@@ -4312,7 +4288,7 @@
         <v>38</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I81" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J81, $K81, "/", $L81, "/", $E81,  $M81, $N81)</f>
@@ -4322,10 +4298,10 @@
         <v>20</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>23</v>
@@ -4349,10 +4325,10 @@
         <v>104</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>44</v>
@@ -4362,16 +4338,16 @@
       </c>
       <c r="I82" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J82, $K82, "/", $L82, "/", $E82,  $M82, $N82)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76632-V11/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76632_V11/outs/molecule_info.h5</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>23</v>
@@ -4384,7 +4360,7 @@
       </c>
       <c r="P82" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J82, $K82, "/", $L82, "/", $E82,  $M82, $O82,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76632-V11/outs/metrics_summary.csv</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76632_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4395,10 +4371,10 @@
         <v>104</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>44</v>
@@ -4408,16 +4384,16 @@
       </c>
       <c r="I83" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J83, $K83, "/", $L83, "/", $E83,  $M83, $N83)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638-V5/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5/outs/molecule_info.h5</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>23</v>
@@ -4430,7 +4406,7 @@
       </c>
       <c r="P83" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J83, $K83, "/", $L83, "/", $E83,  $M83, $O83,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638-V5/outs/metrics_summary.csv</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,10 +4417,10 @@
         <v>104</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>44</v>
@@ -4454,16 +4430,16 @@
       </c>
       <c r="I84" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J84, $K84, "/", $L84, "/", $E84,  $M84, $N84)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638-V5_Muscle/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle/outs/molecule_info.h5</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>23</v>
@@ -4476,7 +4452,7 @@
       </c>
       <c r="P84" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J84, $K84, "/", $L84, "/", $E84,  $M84, $O84,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638-V5_Muscle/outs/metrics_summary.csv</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4487,10 +4463,10 @@
         <v>104</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>44</v>
@@ -4500,16 +4476,16 @@
       </c>
       <c r="I85" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J85, $K85, "/", $L85, "/", $E85,  $M85, $N85)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638-V5_Muscle_force/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle_force/outs/molecule_info.h5</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>23</v>
@@ -4522,7 +4498,7 @@
       </c>
       <c r="P85" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J85, $K85, "/", $L85, "/", $E85,  $M85, $O85,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638-V5_Muscle_force/outs/metrics_summary.csv</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle_force/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4533,10 +4509,10 @@
         <v>104</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>44</v>
@@ -4546,16 +4522,16 @@
       </c>
       <c r="I86" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J86, $K86, "/", $L86, "/", $E86,  $M86, $N86)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76643-V5/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76643_V5/outs/molecule_info.h5</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>23</v>
@@ -4568,7 +4544,7 @@
       </c>
       <c r="P86" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J86, $K86, "/", $L86, "/", $E86,  $M86, $O86,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76643-V5/outs/metrics_summary.csv</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76643_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4579,10 +4555,10 @@
         <v>104</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>44</v>
@@ -4592,16 +4568,16 @@
       </c>
       <c r="I87" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J87, $K87, "/", $L87, "/", $E87,  $M87, $N87)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76647-V5/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76647_V5/outs/molecule_info.h5</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>23</v>
@@ -4614,7 +4590,7 @@
       </c>
       <c r="P87" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J87, $K87, "/", $L87, "/", $E87,  $M87, $O87,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76647-V5/outs/metrics_summary.csv</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76647_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4625,10 +4601,10 @@
         <v>104</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>44</v>
@@ -4638,16 +4614,16 @@
       </c>
       <c r="I88" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J88, $K88, "/", $L88, "/", $E88,  $M88, $N88)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76649-V5/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76649_V5/outs/molecule_info.h5</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>23</v>
@@ -4660,7 +4636,7 @@
       </c>
       <c r="P88" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J88, $K88, "/", $L88, "/", $E88,  $M88, $O88,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76649-V5/outs/metrics_summary.csv</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76649_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4671,10 +4647,10 @@
         <v>35</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>44</v>
@@ -4683,7 +4659,7 @@
         <v>38</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I89" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J89, $K89, "/", $L89, "/", $E89,  $M89, $N89)</f>
@@ -4693,10 +4669,10 @@
         <v>20</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>23</v>
@@ -4726,7 +4702,7 @@
         <v>82</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>19</v>
@@ -4775,7 +4751,7 @@
         <v>80</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>44</v>
@@ -4827,7 +4803,7 @@
         <v>85</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>44</v>
@@ -4876,10 +4852,10 @@
         <v>35</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>44</v>
@@ -4895,10 +4871,10 @@
         <v>20</v>
       </c>
       <c r="K93" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L93" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>23</v>
@@ -4928,7 +4904,7 @@
         <v>60</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>44</v>
@@ -4980,7 +4956,7 @@
         <v>80</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>44</v>
@@ -5032,7 +5008,7 @@
         <v>85</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>44</v>
@@ -5081,7 +5057,7 @@
         <v>80</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>44</v>
@@ -5130,7 +5106,7 @@
         <v>85</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>44</v>
@@ -5179,7 +5155,7 @@
         <v>80</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>44</v>
@@ -5225,10 +5201,10 @@
         <v>35</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>44</v>
@@ -5244,10 +5220,10 @@
         <v>20</v>
       </c>
       <c r="K100" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L100" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>23</v>
@@ -5274,10 +5250,10 @@
         <v>104</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>44</v>
@@ -5286,7 +5262,7 @@
         <v>38</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I101" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J101, $K101, "/", $L101, "/", $E101,  $M101, $N101)</f>
@@ -5296,10 +5272,10 @@
         <v>20</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="M101" s="2" t="s">
         <v>23</v>
@@ -5326,10 +5302,10 @@
         <v>35</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>44</v>
@@ -5338,7 +5314,7 @@
         <v>38</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I102" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J102, $K102, "/", $L102, "/", $E102,  $M102, $N102)</f>
@@ -5348,10 +5324,10 @@
         <v>20</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>23</v>
@@ -5378,10 +5354,10 @@
         <v>104</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>44</v>
@@ -5390,7 +5366,7 @@
         <v>38</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I103" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J103, $K103, "/", $L103, "/", $E103,  $M103, $N103)</f>
@@ -5400,10 +5376,10 @@
         <v>20</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>23</v>
@@ -5430,10 +5406,10 @@
         <v>104</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>44</v>
@@ -5442,7 +5418,7 @@
         <v>38</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I104" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J104, $K104, "/", $L104, "/", $E104,  $M104, $N104)</f>
@@ -5452,10 +5428,10 @@
         <v>20</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>23</v>
@@ -5482,10 +5458,10 @@
         <v>104</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>44</v>
@@ -5494,7 +5470,7 @@
         <v>38</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I105" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J105, $K105, "/", $L105, "/", $E105,  $M105, $N105)</f>
@@ -5504,10 +5480,10 @@
         <v>20</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>23</v>
@@ -5534,10 +5510,10 @@
         <v>35</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>44</v>
@@ -5546,7 +5522,7 @@
         <v>38</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I106" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J106, $K106, "/", $L106, "/", $E106,  $M106, $N106)</f>
@@ -5556,10 +5532,10 @@
         <v>20</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>23</v>
@@ -5586,10 +5562,10 @@
         <v>104</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>44</v>
@@ -5598,7 +5574,7 @@
         <v>38</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I107" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J107, $K107, "/", $L107, "/", $E107,  $M107, $N107)</f>
@@ -5608,10 +5584,10 @@
         <v>20</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>23</v>
@@ -5638,10 +5614,10 @@
         <v>104</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>44</v>
@@ -5650,7 +5626,7 @@
         <v>38</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I108" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J108, $K108, "/", $L108, "/", $E108,  $M108, $N108)</f>
@@ -5660,10 +5636,10 @@
         <v>20</v>
       </c>
       <c r="K108" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L108" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>23</v>
@@ -5690,10 +5666,10 @@
         <v>104</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>44</v>
@@ -5702,7 +5678,7 @@
         <v>38</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I109" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J109, $K109, "/", $L109, "/", $E109,  $M109, $N109)</f>
@@ -5712,10 +5688,10 @@
         <v>20</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>23</v>
@@ -5742,16 +5718,16 @@
         <v>104</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I110" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J110, $K110, "/", $L110, "/", $E110,  $M110, $N110)</f>
@@ -5761,10 +5737,10 @@
         <v>20</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M110" s="2" t="s">
         <v>23</v>
@@ -5791,16 +5767,16 @@
         <v>104</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I111" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J111, $K111, "/", $L111, "/", $E111,  $M111, $N111)</f>
@@ -5810,10 +5786,10 @@
         <v>20</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M111" s="2" t="s">
         <v>23</v>
@@ -5840,16 +5816,16 @@
         <v>104</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I112" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J112, $K112, "/", $L112, "/", $E112,  $M112, $N112)</f>
@@ -5859,10 +5835,10 @@
         <v>20</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>23</v>
@@ -5889,19 +5865,19 @@
         <v>35</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I113" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J113, $K113, "/", $L113, "/", $E113,  $M113, $N113)</f>
@@ -5911,10 +5887,10 @@
         <v>20</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>23</v>
@@ -5941,19 +5917,19 @@
         <v>35</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I114" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J114, $K114, "/", $L114, "/", $E114,  $M114, $N114)</f>
@@ -5963,10 +5939,10 @@
         <v>20</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>23</v>
@@ -5993,10 +5969,10 @@
         <v>104</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>44</v>
@@ -6005,7 +5981,7 @@
         <v>69</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I115" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J115, $K115, "/", $L115, "/", $E115,  $M115, $N115)</f>
@@ -6015,10 +5991,10 @@
         <v>20</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>23</v>
@@ -6045,10 +6021,10 @@
         <v>104</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>44</v>
@@ -6057,7 +6033,7 @@
         <v>69</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I116" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J116, $K116, "/", $L116, "/", $E116,  $M116, $N116)</f>
@@ -6067,10 +6043,10 @@
         <v>20</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="M116" s="2" t="s">
         <v>23</v>
@@ -6097,10 +6073,10 @@
         <v>104</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>44</v>
@@ -6109,7 +6085,7 @@
         <v>69</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I117" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J117, $K117, "/", $L117, "/", $E117,  $M117, $N117)</f>
@@ -6119,10 +6095,10 @@
         <v>20</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>23</v>
@@ -6149,10 +6125,10 @@
         <v>104</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>44</v>
@@ -6161,7 +6137,7 @@
         <v>38</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I118" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J118, $K118, "/", $L118, "/", $E118,  $M118, $N118)</f>
@@ -6171,10 +6147,10 @@
         <v>20</v>
       </c>
       <c r="K118" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L118" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="L118" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>23</v>
@@ -6201,10 +6177,10 @@
         <v>104</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>44</v>
@@ -6213,7 +6189,7 @@
         <v>69</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I119" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J119, $K119, "/", $L119, "/", $E119,  $M119, $N119)</f>
@@ -6223,10 +6199,10 @@
         <v>20</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>23</v>
@@ -6253,10 +6229,10 @@
         <v>104</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>44</v>
@@ -6265,7 +6241,7 @@
         <v>69</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I120" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J120, $K120, "/", $L120, "/", $E120,  $M120, $N120)</f>
@@ -6275,10 +6251,10 @@
         <v>20</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>23</v>
@@ -6305,10 +6281,10 @@
         <v>104</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>44</v>
@@ -6317,7 +6293,7 @@
         <v>69</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I121" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J121, $K121, "/", $L121, "/", $E121,  $M121, $N121)</f>
@@ -6327,10 +6303,10 @@
         <v>20</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>23</v>
@@ -6367,10 +6343,10 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="D:D C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="26.2"/>
@@ -6389,13 +6365,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>8</v>
@@ -6403,7 +6379,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
@@ -6415,271 +6391,271 @@
         <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFIles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFIles/Form 3_cellranger_counts_summary.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="176">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -405,67 +405,67 @@
     <t xml:space="preserve">STARR_049</t>
   </si>
   <si>
+    <t xml:space="preserve">76632_V11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210830_L3_counts_dual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5_Muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5_Muscle_force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76643_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76649_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_028_force2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_031_force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_032_force3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_039_force2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_016_force7000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_031_force3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_032_force2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_031_force2600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_032_force2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_031_force2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_039_force1500</t>
+  </si>
+  <si>
     <t xml:space="preserve">middle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76632_V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210830_L3_counts_dual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5_Muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5_Muscle_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76643_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76647_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76649_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_028_force2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_031_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_032_force3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_039_force2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_016_force7000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_031_force3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_032_force2500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_031_force2600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_032_force2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_031_force2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_039_force1500</t>
   </si>
   <si>
     <t xml:space="preserve">SequencingFiles_3</t>
@@ -669,17 +669,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
-      <selection pane="bottomRight" activeCell="E101" activeCellId="0" sqref="E101"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F123" activeCellId="0" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -754,7 +754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -797,7 +797,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -840,7 +840,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -926,7 +926,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -969,7 +969,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/Rapa_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15_forced/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15_premrna/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_015_Next/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/Buttons_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_Rapa_Mar/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_STARR_015/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Forced_STARR_016/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_STARR_016/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_Buttons/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/All_STARR_015/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/All_STARR_015fix/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/ALL_Buttons/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_Nova/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR026h/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR024/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR031/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR028/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR026/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR032/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_026/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_024/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Rapa_Mar_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Rapa_Mar/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDYoung/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDOld/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDYoung/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDOld/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Young_combine_force_5000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Young_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Old_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Evie/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Marmoset_Olaf/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Norton/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/76615_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_041/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_043/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R1/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>68</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R2/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>69</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R1/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>70</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R2/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>71</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/76632_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>72</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>73</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>75</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>76</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>77</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>78</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>79</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>80</v>
       </c>
@@ -4286,9 +4286,6 @@
       </c>
       <c r="G81" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="I81" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J81, $K81, "/", $L81, "/", $E81,  $M81, $N81)</f>
@@ -4317,7 +4314,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_049/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>81</v>
       </c>
@@ -4325,10 +4322,10 @@
         <v>104</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>44</v>
@@ -4347,7 +4344,7 @@
         <v>106</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>23</v>
@@ -4363,7 +4360,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76632_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>82</v>
       </c>
@@ -4371,10 +4368,10 @@
         <v>104</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>44</v>
@@ -4393,7 +4390,7 @@
         <v>106</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>23</v>
@@ -4409,7 +4406,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>83</v>
       </c>
@@ -4417,10 +4414,10 @@
         <v>104</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>44</v>
@@ -4439,7 +4436,7 @@
         <v>106</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>23</v>
@@ -4455,7 +4452,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>84</v>
       </c>
@@ -4463,10 +4460,10 @@
         <v>104</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>44</v>
@@ -4485,7 +4482,7 @@
         <v>106</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>23</v>
@@ -4501,7 +4498,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>85</v>
       </c>
@@ -4509,10 +4506,10 @@
         <v>104</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>44</v>
@@ -4531,7 +4528,7 @@
         <v>106</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>23</v>
@@ -4547,7 +4544,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76643_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>86</v>
       </c>
@@ -4555,10 +4552,10 @@
         <v>104</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>44</v>
@@ -4577,7 +4574,7 @@
         <v>106</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>23</v>
@@ -4593,7 +4590,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76647_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>87</v>
       </c>
@@ -4601,10 +4598,10 @@
         <v>104</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>44</v>
@@ -4623,7 +4620,7 @@
         <v>106</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>23</v>
@@ -4647,19 +4644,16 @@
         <v>35</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="I89" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J89, $K89, "/", $L89, "/", $E89,  $M89, $N89)</f>
@@ -4672,7 +4666,7 @@
         <v>106</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>23</v>
@@ -4688,7 +4682,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/STARR_051/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>89</v>
       </c>
@@ -4702,7 +4696,7 @@
         <v>82</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>19</v>
@@ -4737,7 +4731,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>90</v>
       </c>
@@ -4751,7 +4745,7 @@
         <v>80</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>44</v>
@@ -4789,7 +4783,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>91</v>
       </c>
@@ -4803,7 +4797,7 @@
         <v>85</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>44</v>
@@ -4841,7 +4835,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force3000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>92</v>
       </c>
@@ -4855,7 +4849,7 @@
         <v>108</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>44</v>
@@ -4890,7 +4884,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>93</v>
       </c>
@@ -4904,7 +4898,7 @@
         <v>60</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>44</v>
@@ -4942,7 +4936,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force7000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>94</v>
       </c>
@@ -4956,7 +4950,7 @@
         <v>80</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>44</v>
@@ -4994,7 +4988,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force3000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>95</v>
       </c>
@@ -5008,7 +5002,7 @@
         <v>85</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>44</v>
@@ -5043,7 +5037,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2500/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>96</v>
       </c>
@@ -5057,7 +5051,7 @@
         <v>80</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>44</v>
@@ -5092,7 +5086,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2600/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>97</v>
       </c>
@@ -5106,7 +5100,7 @@
         <v>85</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>44</v>
@@ -5141,7 +5135,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>98</v>
       </c>
@@ -5155,7 +5149,7 @@
         <v>80</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>44</v>
@@ -5190,7 +5184,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>99</v>
       </c>
@@ -5204,7 +5198,7 @@
         <v>108</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>44</v>
@@ -5239,7 +5233,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force1500/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>100</v>
       </c>
@@ -5262,7 +5256,7 @@
         <v>38</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I101" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J101, $K101, "/", $L101, "/", $E101,  $M101, $N101)</f>
@@ -5291,7 +5285,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>101</v>
       </c>
@@ -5314,7 +5308,7 @@
         <v>38</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I102" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J102, $K102, "/", $L102, "/", $E102,  $M102, $N102)</f>
@@ -5343,7 +5337,7 @@
         <v>/media/jianie/SequencingFiles_3/20211106_L3_L4_Counts/STARR_049/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>102</v>
       </c>
@@ -5354,10 +5348,10 @@
         <v>104</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>44</v>
@@ -5366,7 +5360,7 @@
         <v>38</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I103" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J103, $K103, "/", $L103, "/", $E103,  $M103, $N103)</f>
@@ -5395,7 +5389,7 @@
         <v>/media/jianie/SequencingFiles_3/20211107_L3_L4_Counts/76632_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>103</v>
       </c>
@@ -5406,10 +5400,10 @@
         <v>104</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>44</v>
@@ -5418,7 +5412,7 @@
         <v>38</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I104" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J104, $K104, "/", $L104, "/", $E104,  $M104, $N104)</f>
@@ -5447,7 +5441,7 @@
         <v>/media/jianie/SequencingFiles_3/20211108_L3_L4_Counts/76643_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>104</v>
       </c>
@@ -5458,10 +5452,10 @@
         <v>104</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>44</v>
@@ -5470,7 +5464,7 @@
         <v>38</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I105" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J105, $K105, "/", $L105, "/", $E105,  $M105, $N105)</f>
@@ -5510,10 +5504,10 @@
         <v>35</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>44</v>
@@ -5522,7 +5516,7 @@
         <v>38</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I106" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J106, $K106, "/", $L106, "/", $E106,  $M106, $N106)</f>
@@ -5551,7 +5545,7 @@
         <v>/media/jianie/SequencingFiles_3/20211110_L3_L4_Counts/STARR_051/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>106</v>
       </c>
@@ -5562,10 +5556,10 @@
         <v>104</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>44</v>
@@ -5574,7 +5568,7 @@
         <v>38</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I107" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J107, $K107, "/", $L107, "/", $E107,  $M107, $N107)</f>
@@ -5603,7 +5597,7 @@
         <v>/media/jianie/SequencingFiles_3/20211111_L3_L4_Counts/76649_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>107</v>
       </c>
@@ -5614,10 +5608,10 @@
         <v>104</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>44</v>
@@ -5626,7 +5620,7 @@
         <v>38</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I108" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J108, $K108, "/", $L108, "/", $E108,  $M108, $N108)</f>
@@ -5655,7 +5649,7 @@
         <v>/media/jianie/SequencingFiles_3/20211112_L3_L4_Counts/76638_V5_Muscle/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>108</v>
       </c>
@@ -5666,10 +5660,10 @@
         <v>104</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>44</v>
@@ -5678,7 +5672,7 @@
         <v>38</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I109" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J109, $K109, "/", $L109, "/", $E109,  $M109, $N109)</f>
@@ -5707,7 +5701,7 @@
         <v>/media/jianie/SequencingFiles_3/20211113_L3_L4_Counts/76638_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>109</v>
       </c>
@@ -5727,7 +5721,7 @@
         <v>44</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I110" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J110, $K110, "/", $L110, "/", $E110,  $M110, $N110)</f>
@@ -5756,7 +5750,7 @@
         <v>/media/jianie/SequencingFiles_3/20211114_L3_L4_Counts/76656_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>110</v>
       </c>
@@ -5776,7 +5770,7 @@
         <v>44</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I111" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J111, $K111, "/", $L111, "/", $E111,  $M111, $N111)</f>
@@ -5805,7 +5799,7 @@
         <v>/media/jianie/SequencingFiles_3/20211115_L3_L4_Counts/76658_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>111</v>
       </c>
@@ -5825,7 +5819,7 @@
         <v>44</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I112" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J112, $K112, "/", $L112, "/", $E112,  $M112, $N112)</f>
@@ -5865,7 +5859,7 @@
         <v>35</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>162</v>
@@ -5877,7 +5871,7 @@
         <v>163</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I113" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J113, $K113, "/", $L113, "/", $E113,  $M113, $N113)</f>
@@ -5906,7 +5900,7 @@
         <v>/media/jianie/SequencingFiles_3/20211110_L3_L4_Counts/STARR_051_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>113</v>
       </c>
@@ -5929,7 +5923,7 @@
         <v>163</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I114" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J114, $K114, "/", $L114, "/", $E114,  $M114, $N114)</f>
@@ -5958,7 +5952,7 @@
         <v>/media/jianie/SequencingFiles_3/20211106_L3_L4_Counts/STARR_049_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>114</v>
       </c>
@@ -5969,7 +5963,7 @@
         <v>104</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>165</v>
@@ -5981,7 +5975,7 @@
         <v>69</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I115" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J115, $K115, "/", $L115, "/", $E115,  $M115, $N115)</f>
@@ -6010,7 +6004,7 @@
         <v>/media/jianie/SequencingFiles_3/20211107_L3_L4_Counts/76632_V11_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>115</v>
       </c>
@@ -6033,7 +6027,7 @@
         <v>69</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I116" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J116, $K116, "/", $L116, "/", $E116,  $M116, $N116)</f>
@@ -6062,7 +6056,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>116</v>
       </c>
@@ -6073,7 +6067,7 @@
         <v>104</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>167</v>
@@ -6085,7 +6079,7 @@
         <v>69</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I117" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J117, $K117, "/", $L117, "/", $E117,  $M117, $N117)</f>
@@ -6114,7 +6108,7 @@
         <v>/media/jianie/SequencingFiles_3/20211113_L3_L4_Counts/76638_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>117</v>
       </c>
@@ -6125,7 +6119,7 @@
         <v>104</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>168</v>
@@ -6137,7 +6131,7 @@
         <v>38</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I118" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J118, $K118, "/", $L118, "/", $E118,  $M118, $N118)</f>
@@ -6166,7 +6160,7 @@
         <v>/media/jianie/SequencingFiles_3/20211112_L3_L4_Counts/76638_V5_Muscle_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>118</v>
       </c>
@@ -6177,7 +6171,7 @@
         <v>104</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>169</v>
@@ -6189,7 +6183,7 @@
         <v>69</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I119" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J119, $K119, "/", $L119, "/", $E119,  $M119, $N119)</f>
@@ -6218,7 +6212,7 @@
         <v>/media/jianie/SequencingFiles_3/20211108_L3_L4_Counts/76643_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>119</v>
       </c>
@@ -6229,7 +6223,7 @@
         <v>104</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>170</v>
@@ -6241,7 +6235,7 @@
         <v>69</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I120" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J120, $K120, "/", $L120, "/", $E120,  $M120, $N120)</f>
@@ -6270,7 +6264,7 @@
         <v>/media/jianie/SequencingFiles_3/20211109_L3_L4_Counts/76647_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>120</v>
       </c>
@@ -6281,7 +6275,7 @@
         <v>104</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>171</v>
@@ -6293,7 +6287,7 @@
         <v>69</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I121" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J121, $K121, "/", $L121, "/", $E121,  $M121, $N121)</f>
@@ -6323,7 +6317,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P121"/>
+  <autoFilter ref="A1:P121">
+    <filterColumn colId="3">
+      <customFilters and="true">
+        <customFilter operator="equal" val="STARR_051"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/ExperimentSummaryFIles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFIles/Form 3_cellranger_counts_summary.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="176">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -465,61 +465,61 @@
     <t xml:space="preserve">STARR_039_force1500</t>
   </si>
   <si>
+    <t xml:space="preserve">SequencingFiles_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211105_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211106_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211107_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211108_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211109_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211110_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211111_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211112_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211113_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76656_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211114_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211115_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211116_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_051_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">middle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SequencingFiles_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211105_L3_L4_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211106_L3_L4_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211107_L3_L4_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211108_L3_L4_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211109_L3_L4_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211110_L3_L4_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211111_L3_L4_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211112_L3_L4_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211113_L3_L4_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76656_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211114_L3_L4_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76658_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211115_L3_L4_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211116_L3_L4_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_051_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_049_combine</t>
@@ -669,17 +669,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E98" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F123" activeCellId="0" sqref="F123"/>
+      <selection pane="bottomLeft" activeCell="A98" activeCellId="0" sqref="A98"/>
+      <selection pane="bottomRight" activeCell="H113" activeCellId="0" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -754,7 +754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -797,7 +797,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -840,7 +840,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -926,7 +926,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -969,7 +969,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/Rapa_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15_forced/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15_premrna/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_015_Next/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/Buttons_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_Rapa_Mar/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_STARR_015/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Forced_STARR_016/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_STARR_016/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_Buttons/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/All_STARR_015/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/All_STARR_015fix/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/ALL_Buttons/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_Nova/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR026h/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR024/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR031/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR028/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR026/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR032/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_026/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_024/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Rapa_Mar_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Rapa_Mar/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDYoung/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDOld/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDYoung/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDOld/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Young_combine_force_5000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Young_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Old_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Evie/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Marmoset_Olaf/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Norton/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/76615_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_041/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_043/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R1/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>68</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R2/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>69</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R1/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>70</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R2/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>71</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/76632_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>72</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>73</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>75</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>76</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>77</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>78</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>79</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>80</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_049/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>81</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76632_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>82</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>83</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>84</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>85</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76643_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>86</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76647_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>87</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/STARR_051/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>89</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>90</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>91</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force3000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>92</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>93</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force7000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>94</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force3000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>95</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2500/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>96</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2600/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>97</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>98</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>99</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force1500/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>100</v>
       </c>
@@ -5254,9 +5254,6 @@
       </c>
       <c r="G101" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="I101" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J101, $K101, "/", $L101, "/", $E101,  $M101, $N101)</f>
@@ -5266,10 +5263,10 @@
         <v>20</v>
       </c>
       <c r="K101" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L101" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="M101" s="2" t="s">
         <v>23</v>
@@ -5285,7 +5282,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>101</v>
       </c>
@@ -5306,9 +5303,6 @@
       </c>
       <c r="G102" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="I102" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J102, $K102, "/", $L102, "/", $E102,  $M102, $N102)</f>
@@ -5318,10 +5312,10 @@
         <v>20</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>23</v>
@@ -5337,7 +5331,7 @@
         <v>/media/jianie/SequencingFiles_3/20211106_L3_L4_Counts/STARR_049/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>102</v>
       </c>
@@ -5358,9 +5352,6 @@
       </c>
       <c r="G103" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="I103" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J103, $K103, "/", $L103, "/", $E103,  $M103, $N103)</f>
@@ -5370,10 +5361,10 @@
         <v>20</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>23</v>
@@ -5389,7 +5380,7 @@
         <v>/media/jianie/SequencingFiles_3/20211107_L3_L4_Counts/76632_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>103</v>
       </c>
@@ -5410,9 +5401,6 @@
       </c>
       <c r="G104" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="I104" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J104, $K104, "/", $L104, "/", $E104,  $M104, $N104)</f>
@@ -5422,10 +5410,10 @@
         <v>20</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>23</v>
@@ -5441,7 +5429,7 @@
         <v>/media/jianie/SequencingFiles_3/20211108_L3_L4_Counts/76643_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>104</v>
       </c>
@@ -5462,9 +5450,6 @@
       </c>
       <c r="G105" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="I105" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J105, $K105, "/", $L105, "/", $E105,  $M105, $N105)</f>
@@ -5474,10 +5459,10 @@
         <v>20</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>23</v>
@@ -5515,9 +5500,6 @@
       <c r="G106" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="I106" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J106, $K106, "/", $L106, "/", $E106,  $M106, $N106)</f>
         <v>/media/jianie/SequencingFiles_3/20211110_L3_L4_Counts/STARR_051/outs/molecule_info.h5</v>
@@ -5526,10 +5508,10 @@
         <v>20</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>23</v>
@@ -5545,7 +5527,7 @@
         <v>/media/jianie/SequencingFiles_3/20211110_L3_L4_Counts/STARR_051/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>106</v>
       </c>
@@ -5566,9 +5548,6 @@
       </c>
       <c r="G107" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="I107" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J107, $K107, "/", $L107, "/", $E107,  $M107, $N107)</f>
@@ -5578,10 +5557,10 @@
         <v>20</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>23</v>
@@ -5597,7 +5576,7 @@
         <v>/media/jianie/SequencingFiles_3/20211111_L3_L4_Counts/76649_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>107</v>
       </c>
@@ -5618,9 +5597,6 @@
       </c>
       <c r="G108" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="I108" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J108, $K108, "/", $L108, "/", $E108,  $M108, $N108)</f>
@@ -5630,10 +5606,10 @@
         <v>20</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>23</v>
@@ -5649,7 +5625,7 @@
         <v>/media/jianie/SequencingFiles_3/20211112_L3_L4_Counts/76638_V5_Muscle/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>108</v>
       </c>
@@ -5670,9 +5646,6 @@
       </c>
       <c r="G109" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="I109" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J109, $K109, "/", $L109, "/", $E109,  $M109, $N109)</f>
@@ -5682,10 +5655,10 @@
         <v>20</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>23</v>
@@ -5701,7 +5674,7 @@
         <v>/media/jianie/SequencingFiles_3/20211113_L3_L4_Counts/76638_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>109</v>
       </c>
@@ -5712,16 +5685,13 @@
         <v>104</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="I110" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J110, $K110, "/", $L110, "/", $E110,  $M110, $N110)</f>
@@ -5731,10 +5701,10 @@
         <v>20</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M110" s="2" t="s">
         <v>23</v>
@@ -5750,7 +5720,7 @@
         <v>/media/jianie/SequencingFiles_3/20211114_L3_L4_Counts/76656_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>110</v>
       </c>
@@ -5761,16 +5731,13 @@
         <v>104</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="I111" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J111, $K111, "/", $L111, "/", $E111,  $M111, $N111)</f>
@@ -5780,10 +5747,10 @@
         <v>20</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M111" s="2" t="s">
         <v>23</v>
@@ -5799,7 +5766,7 @@
         <v>/media/jianie/SequencingFiles_3/20211115_L3_L4_Counts/76658_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>111</v>
       </c>
@@ -5810,16 +5777,13 @@
         <v>104</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="I112" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J112, $K112, "/", $L112, "/", $E112,  $M112, $N112)</f>
@@ -5829,10 +5793,10 @@
         <v>20</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>23</v>
@@ -5862,16 +5826,16 @@
         <v>133</v>
       </c>
       <c r="E113" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G113" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="I113" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J113, $K113, "/", $L113, "/", $E113,  $M113, $N113)</f>
@@ -5881,10 +5845,10 @@
         <v>20</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>23</v>
@@ -5900,7 +5864,7 @@
         <v>/media/jianie/SequencingFiles_3/20211110_L3_L4_Counts/STARR_051_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>113</v>
       </c>
@@ -5920,10 +5884,10 @@
         <v>44</v>
       </c>
       <c r="G114" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="I114" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J114, $K114, "/", $L114, "/", $E114,  $M114, $N114)</f>
@@ -5933,10 +5897,10 @@
         <v>20</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>23</v>
@@ -5952,7 +5916,7 @@
         <v>/media/jianie/SequencingFiles_3/20211106_L3_L4_Counts/STARR_049_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>114</v>
       </c>
@@ -5975,7 +5939,7 @@
         <v>69</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I115" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J115, $K115, "/", $L115, "/", $E115,  $M115, $N115)</f>
@@ -5985,10 +5949,10 @@
         <v>20</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>23</v>
@@ -6004,7 +5968,7 @@
         <v>/media/jianie/SequencingFiles_3/20211107_L3_L4_Counts/76632_V11_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>115</v>
       </c>
@@ -6027,7 +5991,7 @@
         <v>69</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I116" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J116, $K116, "/", $L116, "/", $E116,  $M116, $N116)</f>
@@ -6037,10 +6001,10 @@
         <v>20</v>
       </c>
       <c r="K116" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L116" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="M116" s="2" t="s">
         <v>23</v>
@@ -6056,7 +6020,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>116</v>
       </c>
@@ -6079,7 +6043,7 @@
         <v>69</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I117" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J117, $K117, "/", $L117, "/", $E117,  $M117, $N117)</f>
@@ -6089,10 +6053,10 @@
         <v>20</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>23</v>
@@ -6108,7 +6072,7 @@
         <v>/media/jianie/SequencingFiles_3/20211113_L3_L4_Counts/76638_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>117</v>
       </c>
@@ -6131,7 +6095,7 @@
         <v>38</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I118" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J118, $K118, "/", $L118, "/", $E118,  $M118, $N118)</f>
@@ -6141,10 +6105,10 @@
         <v>20</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>23</v>
@@ -6160,7 +6124,7 @@
         <v>/media/jianie/SequencingFiles_3/20211112_L3_L4_Counts/76638_V5_Muscle_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>118</v>
       </c>
@@ -6183,7 +6147,7 @@
         <v>69</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I119" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J119, $K119, "/", $L119, "/", $E119,  $M119, $N119)</f>
@@ -6193,10 +6157,10 @@
         <v>20</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>23</v>
@@ -6212,7 +6176,7 @@
         <v>/media/jianie/SequencingFiles_3/20211108_L3_L4_Counts/76643_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>119</v>
       </c>
@@ -6235,7 +6199,7 @@
         <v>69</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I120" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J120, $K120, "/", $L120, "/", $E120,  $M120, $N120)</f>
@@ -6245,10 +6209,10 @@
         <v>20</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>23</v>
@@ -6264,7 +6228,7 @@
         <v>/media/jianie/SequencingFiles_3/20211109_L3_L4_Counts/76647_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>120</v>
       </c>
@@ -6287,7 +6251,7 @@
         <v>69</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I121" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J121, $K121, "/", $L121, "/", $E121,  $M121, $N121)</f>
@@ -6297,10 +6261,10 @@
         <v>20</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>23</v>
@@ -6317,13 +6281,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P121">
-    <filterColumn colId="3">
-      <customFilters and="true">
-        <customFilter operator="equal" val="STARR_051"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P121"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
